--- a/Buyer hub/Invoices/Manual testcases/Invoice listing final testcases.xlsx
+++ b/Buyer hub/Invoices/Manual testcases/Invoice listing final testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\Invoices\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Zeemart All\Git hub\zm-buyerautomation\Buyer hub\Invoices\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33310103-15CC-4C88-97E3-66E268ABD854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C188DB-BB0D-494A-89CC-2EE2326E881E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2758FE1B-EF22-4ECC-8673-3C2C9DDE616F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
   <si>
     <t>SL. No</t>
   </si>
@@ -339,6 +339,24 @@
   </si>
   <si>
     <t>It get displayed Invoice processed details and underline in blue colour</t>
+  </si>
+  <si>
+    <t>In Invoices, non-ZM suppliers appear in the “Supplier” filter</t>
+  </si>
+  <si>
+    <t>Click the Invoice</t>
+  </si>
+  <si>
+    <t>In Invoice details, the invoice details contains the same options like a normal e-invoice, but there may or may not be an order listed under “Linked to”. If there is an order, it will not be hyperlinked</t>
+  </si>
+  <si>
+    <t>As expected it displayed the  same options like a normal e-invoice, but there may or may not be an order listed under “Linked to”. If there is an order, it will not be hyperlinked</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Non-ZM suppliers should appear in the Xero/QBO integration settings page, to allow for “supplier mapping”.</t>
+  </si>
+  <si>
+    <t>As expected it allowed supplier mapping</t>
   </si>
 </sst>
 </file>
@@ -397,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -428,17 +446,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -448,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -463,24 +470,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105319C2-CA92-4291-B439-CA8F566CD853}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,22 +893,22 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -968,13 +974,13 @@
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -992,13 +998,13 @@
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -1007,7 +1013,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1016,21 +1022,22 @@
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="10" t="s">
         <v>46</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1039,21 +1046,22 @@
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="10" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1062,21 +1070,22 @@
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="10" t="s">
         <v>51</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1085,21 +1094,22 @@
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="10" t="s">
         <v>50</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1108,21 +1118,22 @@
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="10" t="s">
         <v>56</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1131,180 +1142,235 @@
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="10" t="s">
         <v>50</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="G15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="G16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="G17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="G18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="2"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="9"/>
+      <c r="B23" s="6"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="9"/>
+      <c r="B24" s="6"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="9"/>
+      <c r="B25" s="6"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
     </row>
   </sheetData>
@@ -1314,6 +1380,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE14CF829741B9429012C5963B61706A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18d29298087f70c59de6e7c2ad40e873">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="014d4624-f59d-44c3-a333-b6c591c77b53" xmlns:ns4="7c8c12dd-75f8-42a3-90db-eecf595a7e04" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="150812ec1dd04a19c671e952e2c5ff5b" ns3:_="" ns4:_="">
     <xsd:import namespace="014d4624-f59d-44c3-a333-b6c591c77b53"/>
@@ -1516,15 +1591,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1532,6 +1598,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13421BFF-B42C-4D11-87F9-0ABC088A76EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{534C194C-7EE7-400B-A072-57A88857D538}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1546,14 +1620,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13421BFF-B42C-4D11-87F9-0ABC088A76EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Buyer hub/Invoices/Manual testcases/Invoice listing final testcases.xlsx
+++ b/Buyer hub/Invoices/Manual testcases/Invoice listing final testcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Zeemart All\Git hub\zm-buyerautomation\Buyer hub\Invoices\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Invoices\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C188DB-BB0D-494A-89CC-2EE2326E881E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709CB9EE-309A-47E7-9FD0-E10A141CBCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2758FE1B-EF22-4ECC-8673-3C2C9DDE616F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
   <si>
     <t>SL. No</t>
   </si>
@@ -357,6 +357,133 @@
   </si>
   <si>
     <t>As expected it allowed supplier mapping</t>
+  </si>
+  <si>
+    <t>Invoice list-&gt;particuar invoice(new implement)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In the right side </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Options"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dropdown they are</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Download invoice and Export to Xero"</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed the Invoice downloaded</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On the top left  If the invoice is an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"e-invoice"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (including PEPPOL invoices) AND it is issued by a supplier with non-zero GST, the page title says </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Tax invoice #INV-123456" rather than "Invoice #INV-123456"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.Download invoice : once click the Download invoice button              2.Export to Xero : Export invoice accounting software popup and *Click on</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Yes processed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button                                                                           * Click on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cancel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button close the popup</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -801,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105319C2-CA92-4291-B439-CA8F566CD853}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1163,7 @@
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1047,20 +1174,18 @@
         <v>18</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1071,20 +1196,20 @@
         <v>18</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1098,7 +1223,7 @@
         <v>47</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>50</v>
@@ -1108,7 +1233,7 @@
       </c>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1118,21 +1243,21 @@
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>53</v>
+      <c r="D13" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1146,7 +1271,7 @@
         <v>47</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>50</v>
@@ -1156,55 +1281,55 @@
       </c>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>34</v>
+      <c r="D15" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>35</v>
+      <c r="D16" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1214,21 +1339,21 @@
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>36</v>
+      <c r="D17" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1239,20 +1364,20 @@
         <v>18</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1262,45 +1387,45 @@
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>61</v>
+      <c r="D19" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1310,68 +1435,116 @@
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="12" t="s">
+      <c r="D21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="6"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6"/>
-      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
+      <c r="B26" s="6"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1380,15 +1553,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE14CF829741B9429012C5963B61706A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18d29298087f70c59de6e7c2ad40e873">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="014d4624-f59d-44c3-a333-b6c591c77b53" xmlns:ns4="7c8c12dd-75f8-42a3-90db-eecf595a7e04" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="150812ec1dd04a19c671e952e2c5ff5b" ns3:_="" ns4:_="">
     <xsd:import namespace="014d4624-f59d-44c3-a333-b6c591c77b53"/>
@@ -1591,6 +1755,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1598,14 +1771,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13421BFF-B42C-4D11-87F9-0ABC088A76EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{534C194C-7EE7-400B-A072-57A88857D538}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1620,6 +1785,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13421BFF-B42C-4D11-87F9-0ABC088A76EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Buyer hub/Invoices/Manual testcases/Invoice listing final testcases.xlsx
+++ b/Buyer hub/Invoices/Manual testcases/Invoice listing final testcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Zeemart All\Git hub\zm-buyerautomation\Buyer hub\Invoices\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Invoices\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C188DB-BB0D-494A-89CC-2EE2326E881E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260C4F0D-A43C-4D79-A0B7-8EB189D93236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2758FE1B-EF22-4ECC-8673-3C2C9DDE616F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="75">
   <si>
     <t>SL. No</t>
   </si>
@@ -357,6 +357,29 @@
   </si>
   <si>
     <t>As expected it allowed supplier mapping</t>
+  </si>
+  <si>
+    <r>
+      <t>It displayed as expected the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tax Invoice #Inv-123</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">If the invoice is an "e-invoice" (including PEPPOL invoices) AND it is issued by a supplier with non-zero GST, the page title says "Tax invoice #INV-123456" rather than "Invoice #INV-123456".
+</t>
+  </si>
+  <si>
+    <t>Click the Invoice(new implement)</t>
   </si>
 </sst>
 </file>
@@ -803,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105319C2-CA92-4291-B439-CA8F566CD853}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,7 +1339,7 @@
       <c r="E21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="10" t="s">
         <v>69</v>
       </c>
       <c r="G21" s="12" t="s">
@@ -1324,7 +1347,7 @@
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -1348,12 +1371,26 @@
       </c>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -1380,15 +1417,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE14CF829741B9429012C5963B61706A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18d29298087f70c59de6e7c2ad40e873">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="014d4624-f59d-44c3-a333-b6c591c77b53" xmlns:ns4="7c8c12dd-75f8-42a3-90db-eecf595a7e04" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="150812ec1dd04a19c671e952e2c5ff5b" ns3:_="" ns4:_="">
     <xsd:import namespace="014d4624-f59d-44c3-a333-b6c591c77b53"/>
@@ -1591,6 +1619,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1598,14 +1635,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13421BFF-B42C-4D11-87F9-0ABC088A76EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{534C194C-7EE7-400B-A072-57A88857D538}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1620,6 +1649,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13421BFF-B42C-4D11-87F9-0ABC088A76EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Buyer hub/Invoices/Manual testcases/Invoice listing final testcases.xlsx
+++ b/Buyer hub/Invoices/Manual testcases/Invoice listing final testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Invoices\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709CB9EE-309A-47E7-9FD0-E10A141CBCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260C4F0D-A43C-4D79-A0B7-8EB189D93236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2758FE1B-EF22-4ECC-8673-3C2C9DDE616F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="75">
   <si>
     <t>SL. No</t>
   </si>
@@ -359,11 +359,8 @@
     <t>As expected it allowed supplier mapping</t>
   </si>
   <si>
-    <t>Invoice list-&gt;particuar invoice(new implement)</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">In the right side </t>
+      <t>It displayed as expected the</t>
     </r>
     <r>
       <rPr>
@@ -374,116 +371,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"Options"</t>
+      <t xml:space="preserve"> Tax Invoice #Inv-123</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dropdown they are</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Download invoice and Export to Xero"</t>
-    </r>
-  </si>
-  <si>
-    <t>It gets displayed the Invoice downloaded</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">On the top left  If the invoice is an </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"e-invoice"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (including PEPPOL invoices) AND it is issued by a supplier with non-zero GST, the page title says </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Tax invoice #INV-123456" rather than "Invoice #INV-123456"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.Download invoice : once click the Download invoice button              2.Export to Xero : Export invoice accounting software popup and *Click on</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Yes processed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button                                                                           * Click on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cancel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> button close the popup</t>
-    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">If the invoice is an "e-invoice" (including PEPPOL invoices) AND it is issued by a supplier with non-zero GST, the page title says "Tax invoice #INV-123456" rather than "Invoice #INV-123456".
+</t>
+  </si>
+  <si>
+    <t>Click the Invoice(new implement)</t>
   </si>
 </sst>
 </file>
@@ -928,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105319C2-CA92-4291-B439-CA8F566CD853}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1059,7 @@
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1174,18 +1070,20 @@
         <v>18</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1196,20 +1094,20 @@
         <v>18</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1223,7 +1121,7 @@
         <v>47</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>50</v>
@@ -1233,7 +1131,7 @@
       </c>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1243,21 +1141,21 @@
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>54</v>
+      <c r="D13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1271,7 +1169,7 @@
         <v>47</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>50</v>
@@ -1281,55 +1179,55 @@
       </c>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>53</v>
+      <c r="D15" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>10</v>
       </c>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>47</v>
+      <c r="D16" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>10</v>
       </c>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -1339,21 +1237,21 @@
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>34</v>
+      <c r="D17" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1364,20 +1262,20 @@
         <v>18</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -1387,45 +1285,45 @@
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>36</v>
+      <c r="D19" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -1435,48 +1333,46 @@
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>63</v>
+      <c r="D21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="11" t="s">
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>22</v>
-      </c>
+    <row r="23" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1484,67 +1380,35 @@
         <v>18</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="6"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="6"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="6"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Buyer hub/Invoices/Manual testcases/Invoice listing final testcases.xlsx
+++ b/Buyer hub/Invoices/Manual testcases/Invoice listing final testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Invoices\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260C4F0D-A43C-4D79-A0B7-8EB189D93236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F74772-A05E-4AAC-87B9-C477024E9565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2758FE1B-EF22-4ECC-8673-3C2C9DDE616F}"/>
   </bookViews>
@@ -826,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105319C2-CA92-4291-B439-CA8F566CD853}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,7 +1372,9 @@
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
       <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1620,18 +1622,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1654,14 +1656,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13421BFF-B42C-4D11-87F9-0ABC088A76EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DFCC1B4-B221-4083-9290-428BE0A07879}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -1676,4 +1670,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13421BFF-B42C-4D11-87F9-0ABC088A76EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>